--- a/Saved_file/EM001/2026_01/work_logs_EM001_2026_01.xlsx
+++ b/Saved_file/EM001/2026_01/work_logs_EM001_2026_01.xlsx
@@ -885,7 +885,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z112"/>
+  <dimension ref="A1:Z114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11865,6 +11865,202 @@
         <v>0.001</v>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2026-01-29 18:39:59</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Mouse session 1 - Score: 0.008</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>EM001</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>20260129_183944</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>18:39:59</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1285</v>
+      </c>
+      <c r="L113" t="n">
+        <v>1285</v>
+      </c>
+      <c r="M113" t="n">
+        <v>3055.16</v>
+      </c>
+      <c r="N113" t="n">
+        <v>2627</v>
+      </c>
+      <c r="O113" t="n">
+        <v>1050</v>
+      </c>
+      <c r="P113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>0</v>
+      </c>
+      <c r="R113" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="S113" t="n">
+        <v>565.87</v>
+      </c>
+      <c r="T113" t="n">
+        <v>62.71</v>
+      </c>
+      <c r="U113" t="n">
+        <v>486.57</v>
+      </c>
+      <c r="V113" t="n">
+        <v>194.48</v>
+      </c>
+      <c r="W113" t="n">
+        <v>23.78</v>
+      </c>
+      <c r="X113" t="n">
+        <v>77.73999999999999</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2026-01-29 18:40:00</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Mouse session 1 - Score: 0.008</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>EM001</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>20260129_183944</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>18:40:00</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1285</v>
+      </c>
+      <c r="L114" t="n">
+        <v>1285</v>
+      </c>
+      <c r="M114" t="n">
+        <v>3055.16</v>
+      </c>
+      <c r="N114" t="n">
+        <v>2627</v>
+      </c>
+      <c r="O114" t="n">
+        <v>1050</v>
+      </c>
+      <c r="P114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>0</v>
+      </c>
+      <c r="R114" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="S114" t="n">
+        <v>565.87</v>
+      </c>
+      <c r="T114" t="n">
+        <v>62.71</v>
+      </c>
+      <c r="U114" t="n">
+        <v>486.57</v>
+      </c>
+      <c r="V114" t="n">
+        <v>194.48</v>
+      </c>
+      <c r="W114" t="n">
+        <v>23.78</v>
+      </c>
+      <c r="X114" t="n">
+        <v>77.73999999999999</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>0.008</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Saved_file/EM001/2026_01/work_logs_EM001_2026_01.xlsx
+++ b/Saved_file/EM001/2026_01/work_logs_EM001_2026_01.xlsx
@@ -885,7 +885,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z114"/>
+  <dimension ref="A1:Z118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12061,6 +12061,398 @@
         <v>0.008</v>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2026-01-29 19:24:14</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Mouse session 1 - Score: 0.008</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>EM001</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>20260129_192400</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>19:24:14</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1429</v>
+      </c>
+      <c r="L115" t="n">
+        <v>1429</v>
+      </c>
+      <c r="M115" t="n">
+        <v>1935.87</v>
+      </c>
+      <c r="N115" t="n">
+        <v>1384</v>
+      </c>
+      <c r="O115" t="n">
+        <v>996</v>
+      </c>
+      <c r="P115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>0</v>
+      </c>
+      <c r="R115" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S115" t="n">
+        <v>552.9299999999999</v>
+      </c>
+      <c r="T115" t="n">
+        <v>132.71</v>
+      </c>
+      <c r="U115" t="n">
+        <v>395.3</v>
+      </c>
+      <c r="V115" t="n">
+        <v>284.48</v>
+      </c>
+      <c r="W115" t="n">
+        <v>110.17</v>
+      </c>
+      <c r="X115" t="n">
+        <v>78.64</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2026-01-29 19:24:15</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Mouse session 1 - Score: 0.008</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>EM001</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>20260129_192400</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>19:24:15</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1429</v>
+      </c>
+      <c r="L116" t="n">
+        <v>1429</v>
+      </c>
+      <c r="M116" t="n">
+        <v>1935.87</v>
+      </c>
+      <c r="N116" t="n">
+        <v>1384</v>
+      </c>
+      <c r="O116" t="n">
+        <v>996</v>
+      </c>
+      <c r="P116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>0</v>
+      </c>
+      <c r="R116" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S116" t="n">
+        <v>552.9299999999999</v>
+      </c>
+      <c r="T116" t="n">
+        <v>132.71</v>
+      </c>
+      <c r="U116" t="n">
+        <v>395.3</v>
+      </c>
+      <c r="V116" t="n">
+        <v>284.48</v>
+      </c>
+      <c r="W116" t="n">
+        <v>110.17</v>
+      </c>
+      <c r="X116" t="n">
+        <v>78.64</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2026-01-29 19:31:05</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Mouse session 1 - Score: 0.259</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>EM001</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>20260129_193009</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>19:31:05</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1301</v>
+      </c>
+      <c r="L117" t="n">
+        <v>1301</v>
+      </c>
+      <c r="M117" t="n">
+        <v>2907.68</v>
+      </c>
+      <c r="N117" t="n">
+        <v>2169</v>
+      </c>
+      <c r="O117" t="n">
+        <v>1350</v>
+      </c>
+      <c r="P117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>32</v>
+      </c>
+      <c r="R117" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="S117" t="n">
+        <v>1318.17</v>
+      </c>
+      <c r="T117" t="n">
+        <v>964.45</v>
+      </c>
+      <c r="U117" t="n">
+        <v>983.3</v>
+      </c>
+      <c r="V117" t="n">
+        <v>612.01</v>
+      </c>
+      <c r="W117" t="n">
+        <v>775.09</v>
+      </c>
+      <c r="X117" t="n">
+        <v>327.27</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>0.259</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2026-01-29 19:43:46</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Mouse session 1 - Score: 0.008</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>EM001</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>20260129_194330</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>19:43:46</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1569</v>
+      </c>
+      <c r="L118" t="n">
+        <v>1569</v>
+      </c>
+      <c r="M118" t="n">
+        <v>2253.36</v>
+      </c>
+      <c r="N118" t="n">
+        <v>1666</v>
+      </c>
+      <c r="O118" t="n">
+        <v>1118</v>
+      </c>
+      <c r="P118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>0</v>
+      </c>
+      <c r="R118" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="S118" t="n">
+        <v>456.96</v>
+      </c>
+      <c r="T118" t="n">
+        <v>141.54</v>
+      </c>
+      <c r="U118" t="n">
+        <v>337.85</v>
+      </c>
+      <c r="V118" t="n">
+        <v>226.72</v>
+      </c>
+      <c r="W118" t="n">
+        <v>119.12</v>
+      </c>
+      <c r="X118" t="n">
+        <v>43.79</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>0.008</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
